--- a/diploma project/毕设目录.xlsx
+++ b/diploma project/毕设目录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>第一章：绪论</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,10 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>智能家居领域的芯片解决方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第二章：系统设计的功能需求与主要任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AQS空气质量检测仪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.3.1.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,6 +233,38 @@
   </si>
   <si>
     <t>1.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能家居领域的硬件解决方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易燃气体检测仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人体感应传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.5.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.5.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件编程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -301,16 +325,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -615,594 +642,702 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M44"/>
+  <dimension ref="A2:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:H21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="4" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="3" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="3" t="s">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="3" t="s">
+      <c r="E29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" t="s">
+      <c r="E30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" t="s">
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3" t="s">
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3" t="s">
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3" t="s">
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="4" t="s">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="76">
+  <mergeCells count="82">
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A2:XFD2"/>
@@ -1219,66 +1354,6 @@
     <mergeCell ref="D11:H11"/>
     <mergeCell ref="D12:H12"/>
     <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:D35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/diploma project/毕设目录.xlsx
+++ b/diploma project/毕设目录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>第一章：绪论</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>软件编程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第四章：系统测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,10 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>硬件设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.3.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,19 +176,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.4.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.4.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门磁传感器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人体感应、烟感、水浸、烟雾传感器</t>
+    <t>产品简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件整合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门磁、人体感应、烟雾、水浸、燃气传感器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -261,12 +249,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -571,22 +559,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M37"/>
+  <dimension ref="A2:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -597,8 +585,8 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>34</v>
+      <c r="A4" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -652,13 +640,13 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -666,11 +654,11 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
@@ -694,32 +682,32 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="5" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
@@ -777,7 +765,7 @@
     </row>
     <row r="17" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -792,21 +780,21 @@
         <v>3.1</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
       <c r="D19" s="2" t="s">
         <v>15</v>
       </c>
@@ -816,11 +804,11 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
       <c r="D20" s="2" t="s">
         <v>17</v>
       </c>
@@ -844,11 +832,11 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="2" t="s">
         <v>20</v>
       </c>
@@ -858,27 +846,27 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="5" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6">
+      <c r="A24" s="3">
         <v>3.3</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -890,77 +878,77 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6">
-        <v>3.4</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
+      <c r="A28" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
+      <c r="A29" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
-        <v>24</v>
+      <c r="A30" s="2">
+        <v>4.3</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -969,26 +957,24 @@
     </row>
     <row r="31" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
-        <v>4.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="C31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="2">
-        <v>4.2</v>
+      <c r="A32" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -996,13 +982,11 @@
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="2">
-        <v>4.3</v>
+      <c r="A33" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1010,103 +994,19 @@
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="2">
-        <v>4.4000000000000004</v>
+      <c r="A34" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
+  <mergeCells count="56">
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A2:XFD2"/>
@@ -1123,6 +1023,46 @@
     <mergeCell ref="D11:H11"/>
     <mergeCell ref="D12:H12"/>
     <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/diploma project/毕设目录.xlsx
+++ b/diploma project/毕设目录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>第一章：绪论</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,10 +109,6 @@
   </si>
   <si>
     <t>第四章：系统测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试原则</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -249,12 +245,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -559,22 +555,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M34"/>
+  <dimension ref="A2:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:H27"/>
+      <selection activeCell="A30" sqref="A30:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -585,8 +581,8 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>33</v>
+      <c r="A4" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -640,13 +636,13 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -654,11 +650,11 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
@@ -682,32 +678,32 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
@@ -765,7 +761,7 @@
     </row>
     <row r="17" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -780,21 +776,21 @@
         <v>3.1</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="2" t="s">
         <v>15</v>
       </c>
@@ -804,11 +800,11 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="2" t="s">
         <v>17</v>
       </c>
@@ -832,11 +828,11 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="2" t="s">
         <v>20</v>
       </c>
@@ -846,27 +842,27 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+      <c r="A24" s="6">
         <v>3.3</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -878,28 +874,28 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
@@ -946,28 +942,26 @@
         <v>4.3</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="2">
-        <v>4.4000000000000004</v>
+      <c r="A31" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
@@ -993,20 +987,46 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="54">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A2:XFD2"/>
@@ -1023,46 +1043,6 @@
     <mergeCell ref="D11:H11"/>
     <mergeCell ref="D12:H12"/>
     <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
